--- a/Modelizacion/Clustering_oro_por_minuto_UTILITY.xlsx
+++ b/Modelizacion/Clustering_oro_por_minuto_UTILITY.xlsx
@@ -1281,7 +1281,7 @@
         <v>8</v>
       </c>
       <c r="G28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -1465,7 +1465,7 @@
         <v>8</v>
       </c>
       <c r="G36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">

--- a/Modelizacion/Clustering_oro_por_minuto_UTILITY.xlsx
+++ b/Modelizacion/Clustering_oro_por_minuto_UTILITY.xlsx
@@ -1281,7 +1281,7 @@
         <v>8</v>
       </c>
       <c r="G28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -1465,7 +1465,7 @@
         <v>8</v>
       </c>
       <c r="G36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -2293,7 +2293,7 @@
         <v>8</v>
       </c>
       <c r="G72" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73">

--- a/Modelizacion/Clustering_oro_por_minuto_UTILITY.xlsx
+++ b/Modelizacion/Clustering_oro_por_minuto_UTILITY.xlsx
@@ -1281,7 +1281,7 @@
         <v>8</v>
       </c>
       <c r="G28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -1465,7 +1465,7 @@
         <v>8</v>
       </c>
       <c r="G36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -2293,7 +2293,7 @@
         <v>8</v>
       </c>
       <c r="G72" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73">

--- a/Modelizacion/Clustering_oro_por_minuto_UTILITY.xlsx
+++ b/Modelizacion/Clustering_oro_por_minuto_UTILITY.xlsx
@@ -1281,7 +1281,7 @@
         <v>8</v>
       </c>
       <c r="G28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
